--- a/Features/Features.xlsx
+++ b/Features/Features.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhannadnasri/Desktop/SkylineApp/Skyline-University-College/Features/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0DD5CC-018C-FB4D-A4DA-353B4BFF302F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29842D7-E44F-E24E-9BA2-1FABA25BF53E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" xr2:uid="{74963EB4-7979-1B43-B9A2-F02CE998EF5B}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" activeTab="1" xr2:uid="{74963EB4-7979-1B43-B9A2-F02CE998EF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
+    <sheet name="Staff" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>Features</t>
   </si>
@@ -157,6 +158,12 @@
   </si>
   <si>
     <t>General Appointment</t>
+  </si>
+  <si>
+    <t>Download course details and class test precentage</t>
+  </si>
+  <si>
+    <t>New Features</t>
   </si>
 </sst>
 </file>
@@ -179,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,11 +245,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9388D6B8-8597-BB45-9799-F9293852289D}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,127 +579,145 @@
     <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -693,12 +726,14 @@
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -707,7 +742,7 @@
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -718,60 +753,333 @@
       <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC8827F-AB7A-E14B-851D-238A955C74EF}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Features/Features.xlsx
+++ b/Features/Features.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhannadnasri/Desktop/SkylineApp/Skyline-University-College/Features/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29842D7-E44F-E24E-9BA2-1FABA25BF53E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" activeTab="1" xr2:uid="{74963EB4-7979-1B43-B9A2-F02CE998EF5B}"/>
+    <workbookView xWindow="6320" yWindow="1200" windowWidth="28040" windowHeight="16160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
     <sheet name="Staff" sheetId="2" r:id="rId2"/>
+    <sheet name="Faculty" sheetId="3" r:id="rId3"/>
+    <sheet name="Guest" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>Features</t>
   </si>
@@ -164,13 +163,245 @@
   </si>
   <si>
     <t>New Features</t>
+  </si>
+  <si>
+    <t>Online Request For paper / pay fine ….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For request change class time </t>
+  </si>
+  <si>
+    <t>For request attend to class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to Request Withdrawal course </t>
+  </si>
+  <si>
+    <t>For Request update information</t>
+  </si>
+  <si>
+    <t>For request Passport Withdrawal</t>
+  </si>
+  <si>
+    <t>For General Appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change type how it send </t>
+  </si>
+  <si>
+    <t>New Features *</t>
+  </si>
+  <si>
+    <t>Passport Retaining</t>
+  </si>
+  <si>
+    <t>Leave Application</t>
+  </si>
+  <si>
+    <t>Salary Certificate</t>
+  </si>
+  <si>
+    <t>Leave Holiday</t>
+  </si>
+  <si>
+    <t>Book Requistion</t>
+  </si>
+  <si>
+    <t>Membership</t>
+  </si>
+  <si>
+    <t>Air Ticket Request</t>
+  </si>
+  <si>
+    <t>Request Passport Retaining</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Request </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leave Application</t>
+    </r>
+  </si>
+  <si>
+    <t>Request Salary Certificate</t>
+  </si>
+  <si>
+    <t>Request Passport Withdrawal</t>
+  </si>
+  <si>
+    <t>Request Leave Holiday</t>
+  </si>
+  <si>
+    <t>Request Book Requistion</t>
+  </si>
+  <si>
+    <t>Request Membership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request Air Ticket </t>
+  </si>
+  <si>
+    <t>Course Allocation</t>
+  </si>
+  <si>
+    <t>Show Courses and Secation date time  / morrning / evening / weekend</t>
+  </si>
+  <si>
+    <t>Advisor Appointment Details Log</t>
+  </si>
+  <si>
+    <t>Advisor Appointment Details Log with students</t>
+  </si>
+  <si>
+    <t>Advisess</t>
+  </si>
+  <si>
+    <t>Show Advisess Students</t>
+  </si>
+  <si>
+    <t>Conference Participation</t>
+  </si>
+  <si>
+    <t>Request for Conference Participation</t>
+  </si>
+  <si>
+    <t>Outdoor Event</t>
+  </si>
+  <si>
+    <t>Request for Outdoor Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacts List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show List Contacts All Staff Email Mobile / and position </t>
+  </si>
+  <si>
+    <t>Admission↓</t>
+  </si>
+  <si>
+    <t>Programs ↓</t>
+  </si>
+  <si>
+    <t>News/Events</t>
+  </si>
+  <si>
+    <t>Gallery</t>
+  </si>
+  <si>
+    <t>FAQ?</t>
+  </si>
+  <si>
+    <t>SUC info</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Admission Form</t>
+  </si>
+  <si>
+    <t>Scholarship</t>
+  </si>
+  <si>
+    <t>Under Graduate</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>Professional Courses</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>About SUC</t>
+  </si>
+  <si>
+    <t>Why SUC</t>
+  </si>
+  <si>
+    <t>Government Recognized</t>
+  </si>
+  <si>
+    <t>World Class Infrastructure</t>
+  </si>
+  <si>
+    <t>Research Focuse</t>
+  </si>
+  <si>
+    <t>Corporate Interaction</t>
+  </si>
+  <si>
+    <t>registration Form</t>
+  </si>
+  <si>
+    <t>Show Updated News and Events with interactive design </t>
+  </si>
+  <si>
+    <t>Show Updated Gallery Image / Videos with interactive design </t>
+  </si>
+  <si>
+    <t>Show Location in all Place and contacts details</t>
+  </si>
+  <si>
+    <t>For show available Scholarship</t>
+  </si>
+  <si>
+    <t>Show Programs for UnderGraduate</t>
+  </si>
+  <si>
+    <t>Show Programs for Graduate</t>
+  </si>
+  <si>
+    <t>Show Programs for Professional Courses</t>
+  </si>
+  <si>
+    <t>Show frequently questioned answers</t>
+  </si>
+  <si>
+    <t>Show Staff in university</t>
+  </si>
+  <si>
+    <t>Show Information about SUC</t>
+  </si>
+  <si>
+    <t>Show Why choice SUC</t>
+  </si>
+  <si>
+    <t>Show Government Recognized</t>
+  </si>
+  <si>
+    <t>Show World Class Infrastructure</t>
+  </si>
+  <si>
+    <t>Show Research Focuse</t>
+  </si>
+  <si>
+    <t>Show Corporate Interaction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,8 +416,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +464,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -228,32 +487,203 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="85">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -312,7 +742,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -364,7 +794,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -558,28 +988,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9388D6B8-8597-BB45-9799-F9293852289D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -599,7 +1029,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -608,14 +1038,14 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -624,7 +1054,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -633,7 +1063,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -642,7 +1072,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -651,14 +1081,14 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -667,7 +1097,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -676,7 +1106,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -685,7 +1115,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -694,14 +1124,14 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -710,7 +1140,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -719,7 +1149,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -728,14 +1158,14 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -746,7 +1176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -755,63 +1185,79 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -822,25 +1268,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC8827F-AB7A-E14B-851D-238A955C74EF}">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,237 +1303,500 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="4"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>